--- a/population/population.xlsx
+++ b/population/population.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\XXXX_PERS_Git\neuramod_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\XXXX_PERS_Git\neuramod_data\population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CC777-93BC-40EE-9C8A-38244A53555E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9317B-EF7F-4F06-B6F4-F1F72B755EB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9950" yWindow="2840" windowWidth="24710" windowHeight="15460" xr2:uid="{906F6B47-E216-44C8-98B0-5120D3437B87}"/>
+    <workbookView xWindow="9080" yWindow="2300" windowWidth="24710" windowHeight="15460" xr2:uid="{906F6B47-E216-44C8-98B0-5120D3437B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>firstName</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>TOF</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E625FE4-29E7-489B-8B6F-C3830FEEE33E}">
-  <dimension ref="A1:J10002"/>
+  <dimension ref="A1:K10002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +544,7 @@
     <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +575,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -587,72 +593,72 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J3" s="6">
         <v>2152</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J4" s="6">
         <v>5847</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J5" s="6">
         <v>1986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J6" s="6">
         <v>3258</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J7" s="6">
         <v>2342</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J8" s="6">
         <v>1074</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J9" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J10" s="6">
         <v>1960</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J11" s="6">
         <v>8461</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J12" s="6">
         <v>8561</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J13" s="6">
         <v>925</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J14" s="6">
         <v>5338</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J15" s="6">
         <v>1208</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J16" s="6">
         <v>940</v>
       </c>
